--- a/data/players_list.xlsx
+++ b/data/players_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b86bef26d6efb2e1/Desktop/fantabot/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawei\Music\fantabot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_14890933C07DAE0E62355476585DCE3A87474EEE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D5938E2-DD0A-45B6-9C45-71D8A7B791A1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBB4429-4CE2-4E0A-BE15-9B38AC750011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="556">
   <si>
     <t>GK</t>
   </si>
@@ -214,9 +214,6 @@
     <t>Nava</t>
   </si>
   <si>
-    <t>Christensen O.</t>
-  </si>
-  <si>
     <t>Martinelli T.</t>
   </si>
   <si>
@@ -268,15 +265,9 @@
     <t>Gollini</t>
   </si>
   <si>
-    <t>Russo A.</t>
-  </si>
-  <si>
     <t>Satalino</t>
   </si>
   <si>
-    <t>Donnarumma An.</t>
-  </si>
-  <si>
     <t>Paleari</t>
   </si>
   <si>
@@ -454,9 +445,6 @@
     <t>Biraghi</t>
   </si>
   <si>
-    <t>Tchatchoua</t>
-  </si>
-  <si>
     <t>Kolasinac</t>
   </si>
   <si>
@@ -484,9 +472,6 @@
     <t>Spinazzola</t>
   </si>
   <si>
-    <t>Leoni</t>
-  </si>
-  <si>
     <t>Celik</t>
   </si>
   <si>
@@ -550,9 +535,6 @@
     <t>Gallo</t>
   </si>
   <si>
-    <t>Jimenez A.</t>
-  </si>
-  <si>
     <t>Circati</t>
   </si>
   <si>
@@ -622,9 +604,6 @@
     <t>Kouassi</t>
   </si>
   <si>
-    <t>Thiaw</t>
-  </si>
-  <si>
     <t>Valenti</t>
   </si>
   <si>
@@ -634,9 +613,6 @@
     <t>Mateus Lusuardi</t>
   </si>
   <si>
-    <t>Salah-Eddine</t>
-  </si>
-  <si>
     <t>Romagna</t>
   </si>
   <si>
@@ -658,9 +634,6 @@
     <t>Palestra</t>
   </si>
   <si>
-    <t>Erlic</t>
-  </si>
-  <si>
     <t>Idrissi R.</t>
   </si>
   <si>
@@ -670,9 +643,6 @@
     <t>Bianchetti</t>
   </si>
   <si>
-    <t>Azzi</t>
-  </si>
-  <si>
     <t>Barbieri</t>
   </si>
   <si>
@@ -682,18 +652,12 @@
     <t>Marcandalli</t>
   </si>
   <si>
-    <t>Vogliacco</t>
-  </si>
-  <si>
     <t>Norton-Cuffy</t>
   </si>
   <si>
     <t>Rugani</t>
   </si>
   <si>
-    <t>Savona</t>
-  </si>
-  <si>
     <t>Provstgaard</t>
   </si>
   <si>
@@ -742,9 +706,6 @@
     <t>Masina</t>
   </si>
   <si>
-    <t>Giannetti L.</t>
-  </si>
-  <si>
     <t>Kabasele</t>
   </si>
   <si>
@@ -766,33 +727,18 @@
     <t>Smolcic I.</t>
   </si>
   <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>Ravanelli</t>
-  </si>
-  <si>
     <t>Otoa</t>
   </si>
   <si>
     <t>Terracciano F.</t>
   </si>
   <si>
-    <t>Hainaut</t>
-  </si>
-  <si>
     <t>Lovik</t>
   </si>
   <si>
     <t>Rus</t>
   </si>
   <si>
-    <t>Kumbulla</t>
-  </si>
-  <si>
-    <t>Missori</t>
-  </si>
-  <si>
     <t>Pieragnolo</t>
   </si>
   <si>
@@ -808,9 +754,6 @@
     <t>Ilic M.</t>
   </si>
   <si>
-    <t>Veroli</t>
-  </si>
-  <si>
     <t>Sernicola</t>
   </si>
   <si>
@@ -838,9 +781,6 @@
     <t>Esteves T.</t>
   </si>
   <si>
-    <t>Abdulhamid</t>
-  </si>
-  <si>
     <t>Paz Y.</t>
   </si>
   <si>
@@ -973,9 +913,6 @@
     <t>Bernabè</t>
   </si>
   <si>
-    <t>Man</t>
-  </si>
-  <si>
     <t>Pellegrini Lo.</t>
   </si>
   <si>
@@ -1093,9 +1030,6 @@
     <t>Luis Henrique</t>
   </si>
   <si>
-    <t>Weah</t>
-  </si>
-  <si>
     <t>Coulibaly L.</t>
   </si>
   <si>
@@ -1168,9 +1102,6 @@
     <t>Deiola</t>
   </si>
   <si>
-    <t>Zanimacchia</t>
-  </si>
-  <si>
     <t>Masini</t>
   </si>
   <si>
@@ -1234,9 +1165,6 @@
     <t>Chukwueze</t>
   </si>
   <si>
-    <t>Ghion</t>
-  </si>
-  <si>
     <t>Lipani</t>
   </si>
   <si>
@@ -1255,15 +1183,9 @@
     <t>Prati</t>
   </si>
   <si>
-    <t>Castagnetti</t>
-  </si>
-  <si>
     <t>Venturino</t>
   </si>
   <si>
-    <t>Douglas Luiz</t>
-  </si>
-  <si>
     <t>Berisha M.</t>
   </si>
   <si>
@@ -1285,12 +1207,6 @@
     <t>Niasse</t>
   </si>
   <si>
-    <t>Engelhardt</t>
-  </si>
-  <si>
-    <t>Pickel</t>
-  </si>
-  <si>
     <t>Ndour</t>
   </si>
   <si>
@@ -1312,15 +1228,9 @@
     <t>Liteta</t>
   </si>
   <si>
-    <t>Braunoder</t>
-  </si>
-  <si>
     <t>Alli</t>
   </si>
   <si>
-    <t>Bianco</t>
-  </si>
-  <si>
     <t>Basic</t>
   </si>
   <si>
@@ -1330,9 +1240,6 @@
     <t>Marchwinski</t>
   </si>
   <si>
-    <t>Liberali</t>
-  </si>
-  <si>
     <t>Hojholt</t>
   </si>
   <si>
@@ -1342,9 +1249,6 @@
     <t>Iannoni</t>
   </si>
   <si>
-    <t>Pafundi</t>
-  </si>
-  <si>
     <t>Martinez L.</t>
   </si>
   <si>
@@ -1426,9 +1330,6 @@
     <t>Pinamonti</t>
   </si>
   <si>
-    <t>Thauvin</t>
-  </si>
-  <si>
     <t>Dzeko</t>
   </si>
   <si>
@@ -1447,9 +1348,6 @@
     <t>Pedro</t>
   </si>
   <si>
-    <t>Raspadori</t>
-  </si>
-  <si>
     <t>Pellegrino M.</t>
   </si>
   <si>
@@ -1462,9 +1360,6 @@
     <t>Vitinha O.</t>
   </si>
   <si>
-    <t>Gonzalez N.</t>
-  </si>
-  <si>
     <t>Camarda</t>
   </si>
   <si>
@@ -1507,9 +1402,6 @@
     <t>Sarr A.</t>
   </si>
   <si>
-    <t>Tourè E.</t>
-  </si>
-  <si>
     <t>Addai</t>
   </si>
   <si>
@@ -1564,21 +1456,9 @@
     <t>Pierini</t>
   </si>
   <si>
-    <t>Mulattieri</t>
-  </si>
-  <si>
-    <t>Taremi</t>
-  </si>
-  <si>
-    <t>Okafor</t>
-  </si>
-  <si>
     <t>Almqvist</t>
   </si>
   <si>
-    <t>Lind</t>
-  </si>
-  <si>
     <t>Bayo V.</t>
   </si>
   <si>
@@ -1588,36 +1468,18 @@
     <t>Cancellieri</t>
   </si>
   <si>
-    <t>Brenner</t>
-  </si>
-  <si>
-    <t>Rocha Livramento</t>
-  </si>
-  <si>
     <t>Ekuban</t>
   </si>
   <si>
     <t>Meister</t>
   </si>
   <si>
-    <t>Alvarez A.</t>
-  </si>
-  <si>
     <t>Pavoletti</t>
   </si>
   <si>
-    <t>Azon</t>
-  </si>
-  <si>
-    <t>Gabrielloni</t>
-  </si>
-  <si>
     <t>Bonazzoli</t>
   </si>
   <si>
-    <t>Nasti</t>
-  </si>
-  <si>
     <t>Ekhator</t>
   </si>
   <si>
@@ -1630,9 +1492,6 @@
     <t>Buffon L.</t>
   </si>
   <si>
-    <t>Bonfanti N.</t>
-  </si>
-  <si>
     <t>Moro L.</t>
   </si>
   <si>
@@ -1642,10 +1501,196 @@
     <t>Njie</t>
   </si>
   <si>
-    <t>Pizarro</t>
-  </si>
-  <si>
     <t>Giovane</t>
+  </si>
+  <si>
+    <t>Muric</t>
+  </si>
+  <si>
+    <t>Silvestri</t>
+  </si>
+  <si>
+    <t>Toniolo</t>
+  </si>
+  <si>
+    <t>Cavlina</t>
+  </si>
+  <si>
+    <t>Cuadrado</t>
+  </si>
+  <si>
+    <t>Idzes</t>
+  </si>
+  <si>
+    <t>Gutierrez</t>
+  </si>
+  <si>
+    <t>Candè</t>
+  </si>
+  <si>
+    <t>Athekame</t>
+  </si>
+  <si>
+    <t>Troilo</t>
+  </si>
+  <si>
+    <t>Bella-Kotchap</t>
+  </si>
+  <si>
+    <t>Heggem</t>
+  </si>
+  <si>
+    <t>Diego Carlos</t>
+  </si>
+  <si>
+    <t>Bradaric</t>
+  </si>
+  <si>
+    <t>Ndiaye</t>
+  </si>
+  <si>
+    <t>Goglichidze</t>
+  </si>
+  <si>
+    <t>Belghali</t>
+  </si>
+  <si>
+    <t>Nelsson</t>
+  </si>
+  <si>
+    <t>Siebert</t>
+  </si>
+  <si>
+    <t>Tsimikas</t>
+  </si>
+  <si>
+    <t>Lamptey</t>
+  </si>
+  <si>
+    <t>Faye</t>
+  </si>
+  <si>
+    <t>Ziolkowski</t>
+  </si>
+  <si>
+    <t>Nkounkou</t>
+  </si>
+  <si>
+    <t>Cham</t>
+  </si>
+  <si>
+    <t>Odogu</t>
+  </si>
+  <si>
+    <t>Britschgi</t>
+  </si>
+  <si>
+    <t>Rodriguez Ju.</t>
+  </si>
+  <si>
+    <t>Rabiot</t>
+  </si>
+  <si>
+    <t>Zhegrova</t>
+  </si>
+  <si>
+    <t>Bailey</t>
+  </si>
+  <si>
+    <t>Rowe</t>
+  </si>
+  <si>
+    <t>Jashari</t>
+  </si>
+  <si>
+    <t>Oristanio</t>
+  </si>
+  <si>
+    <t>Stengs</t>
+  </si>
+  <si>
+    <t>Elmas</t>
+  </si>
+  <si>
+    <t>Sottil</t>
+  </si>
+  <si>
+    <t>Nicolussi Caviglia</t>
+  </si>
+  <si>
+    <t>Lorran</t>
+  </si>
+  <si>
+    <t>Piotrowski</t>
+  </si>
+  <si>
+    <t>Sorensen O.</t>
+  </si>
+  <si>
+    <t>Diouf</t>
+  </si>
+  <si>
+    <t>Vranckx</t>
+  </si>
+  <si>
+    <t>Matic</t>
+  </si>
+  <si>
+    <t>Al-Musrati</t>
+  </si>
+  <si>
+    <t>Sarmiento J.</t>
+  </si>
+  <si>
+    <t>Miller L.</t>
+  </si>
+  <si>
+    <t>Sala A.</t>
+  </si>
+  <si>
+    <t>Onana J.</t>
+  </si>
+  <si>
+    <t>Rog</t>
+  </si>
+  <si>
+    <t>Adzic</t>
+  </si>
+  <si>
+    <t>Ilkhan</t>
+  </si>
+  <si>
+    <t>Hojlund</t>
+  </si>
+  <si>
+    <t>Nkunku</t>
+  </si>
+  <si>
+    <t>Morata</t>
+  </si>
+  <si>
+    <t>Orban G.</t>
+  </si>
+  <si>
+    <t>Stulic</t>
+  </si>
+  <si>
+    <t>Nzola</t>
+  </si>
+  <si>
+    <t>Buksa</t>
+  </si>
+  <si>
+    <t>Kilicsoy</t>
+  </si>
+  <si>
+    <t>Frigan</t>
+  </si>
+  <si>
+    <t>Moumbagna</t>
+  </si>
+  <si>
+    <t>Cheddira</t>
   </si>
 </sst>
 </file>
@@ -1721,10 +1766,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2012,10 +2053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F514"/>
+  <dimension ref="A1:F529"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F428" sqref="F428"/>
+    <sheetView tabSelected="1" topLeftCell="A452" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2038,30 +2079,30 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2075,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2089,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2103,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2117,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2131,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2145,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2159,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2173,15 +2214,15 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -2192,114 +2233,114 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2313,68 +2354,68 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
         <v>53</v>
@@ -2383,40 +2424,40 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>493</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -2430,10 +2471,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -2444,10 +2485,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -2458,7 +2499,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
@@ -2472,10 +2513,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
@@ -2486,10 +2527,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -2500,10 +2541,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
@@ -2514,7 +2555,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
         <v>23</v>
@@ -2528,7 +2569,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
         <v>33</v>
@@ -2542,7 +2583,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
         <v>33</v>
@@ -2556,7 +2597,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -2570,7 +2611,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
@@ -2579,12 +2620,12 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
@@ -2598,7 +2639,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
@@ -2612,7 +2653,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
@@ -2626,7 +2667,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B44" t="s">
         <v>41</v>
@@ -2640,7 +2681,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
@@ -2654,7 +2695,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
@@ -2668,7 +2709,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
         <v>17</v>
@@ -2682,7 +2723,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" t="s">
         <v>37</v>
@@ -2696,7 +2737,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
         <v>37</v>
@@ -2710,7 +2751,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
         <v>53</v>
@@ -2724,7 +2765,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B51" t="s">
         <v>19</v>
@@ -2738,7 +2779,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B52" t="s">
         <v>19</v>
@@ -2752,7 +2793,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" t="s">
         <v>39</v>
@@ -2766,10 +2807,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
         <v>0</v>
@@ -2780,7 +2821,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s">
         <v>31</v>
@@ -2794,10 +2835,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C56" t="s">
         <v>0</v>
@@ -2808,10 +2849,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C57" t="s">
         <v>0</v>
@@ -2822,10 +2863,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B58" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
         <v>0</v>
@@ -2836,10 +2877,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C59" t="s">
         <v>0</v>
@@ -2850,10 +2891,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C60" t="s">
         <v>0</v>
@@ -2864,10 +2905,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>89</v>
+        <v>494</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C61" t="s">
         <v>0</v>
@@ -2878,10 +2919,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>90</v>
+        <v>495</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C62" t="s">
         <v>0</v>
@@ -2892,21 +2933,21 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>91</v>
+        <v>496</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C63" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
@@ -2915,40 +2956,40 @@
         <v>1</v>
       </c>
       <c r="D64">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -2957,26 +2998,26 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B69" t="s">
         <v>19</v>
@@ -2985,54 +3026,54 @@
         <v>1</v>
       </c>
       <c r="D69">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B73" t="s">
         <v>21</v>
@@ -3041,82 +3082,82 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
       <c r="D75">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
       </c>
       <c r="D76">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
@@ -3125,12 +3166,12 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B80" t="s">
         <v>17</v>
@@ -3144,7 +3185,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B81" t="s">
         <v>19</v>
@@ -3158,142 +3199,142 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
       </c>
       <c r="D82">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B83" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
       </c>
       <c r="D84">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
       </c>
       <c r="D85">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
       </c>
       <c r="D88">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B89" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
       </c>
       <c r="D89">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="B90" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
       </c>
       <c r="D90">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B91" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
       </c>
       <c r="D91">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -3301,13 +3342,13 @@
         <v>120</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
       <c r="D92">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -3315,74 +3356,74 @@
         <v>121</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
       </c>
       <c r="D93">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
       </c>
       <c r="D95">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B96" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
       <c r="D96">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B97" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
       </c>
       <c r="D97">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B98" t="s">
         <v>21</v>
@@ -3391,40 +3432,40 @@
         <v>1</v>
       </c>
       <c r="D98">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B99" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B100" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B101" t="s">
         <v>27</v>
@@ -3438,175 +3479,175 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B102" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
       </c>
       <c r="D102">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B106" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
       </c>
       <c r="D106">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B107" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B108" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
       </c>
       <c r="D108">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B109" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
       </c>
       <c r="D110">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B111" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
       </c>
       <c r="D111">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B112" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B113" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
       </c>
       <c r="D113">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B114" t="s">
         <v>31</v>
@@ -3615,40 +3656,40 @@
         <v>1</v>
       </c>
       <c r="D114">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B115" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C115" t="s">
         <v>1</v>
       </c>
       <c r="D115">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B116" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
       </c>
       <c r="D116">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B117" t="s">
         <v>35</v>
@@ -3657,231 +3698,231 @@
         <v>1</v>
       </c>
       <c r="D117">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B118" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
       </c>
       <c r="D118">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
       </c>
       <c r="D119">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B120" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C120" t="s">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B121" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
       </c>
       <c r="D122">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
       </c>
       <c r="D123">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B124" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C124" t="s">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B125" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
       </c>
       <c r="D125">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="B126" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
       </c>
       <c r="D126">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B127" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C127" t="s">
         <v>1</v>
       </c>
       <c r="D127">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>156</v>
+        <v>497</v>
       </c>
       <c r="B128" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
       </c>
       <c r="D128">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>157</v>
+        <v>498</v>
       </c>
       <c r="B129" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
       </c>
       <c r="D129">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>158</v>
+        <v>499</v>
       </c>
       <c r="B130" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C130" t="s">
         <v>1</v>
       </c>
       <c r="D130">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B131" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C131" t="s">
         <v>1</v>
       </c>
       <c r="D131">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B132" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B133" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C133" t="s">
         <v>1</v>
       </c>
       <c r="D133">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -3889,27 +3930,27 @@
         <v>162</v>
       </c>
       <c r="B134" t="s">
+        <v>29</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1</v>
+      </c>
+      <c r="D134">
         <v>15</v>
-      </c>
-      <c r="C134" t="s">
-        <v>1</v>
-      </c>
-      <c r="D134">
-        <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B135" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C135" t="s">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -3917,105 +3958,105 @@
         <v>164</v>
       </c>
       <c r="B136" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C136" t="s">
         <v>1</v>
       </c>
       <c r="D136">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B137" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C137" t="s">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B138" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C138" t="s">
         <v>1</v>
       </c>
       <c r="D138">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B139" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C139" t="s">
         <v>1</v>
       </c>
       <c r="D139">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B140" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C140" t="s">
         <v>1</v>
       </c>
       <c r="D140">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B141" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C141" t="s">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B142" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C142" t="s">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B143" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C143" t="s">
         <v>1</v>
@@ -4026,231 +4067,231 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>172</v>
+        <v>500</v>
       </c>
       <c r="B144" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C144" t="s">
         <v>1</v>
       </c>
       <c r="D144">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>173</v>
+        <v>501</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C145" t="s">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>174</v>
+        <v>502</v>
       </c>
       <c r="B146" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C146" t="s">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>175</v>
+        <v>503</v>
       </c>
       <c r="B147" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C147" t="s">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B148" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C148" t="s">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B149" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C149" t="s">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B150" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C150" t="s">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B151" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C151" t="s">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="B152" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C152" t="s">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B153" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C153" t="s">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B154" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C154" t="s">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B155" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C155" t="s">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B156" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C156" t="s">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B157" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C157" t="s">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B158" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B159" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C159" t="s">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="B160" t="s">
         <v>29</v>
@@ -4259,26 +4300,26 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>189</v>
+        <v>504</v>
       </c>
       <c r="B161" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C161" t="s">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>190</v>
+        <v>505</v>
       </c>
       <c r="B162" t="s">
         <v>29</v>
@@ -4287,113 +4328,113 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B163" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C163" t="s">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B164" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C164" t="s">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="B165" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C165" t="s">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B166" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C166" t="s">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B167" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C167" t="s">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B168" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C168" t="s">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B169" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C169" t="s">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B170" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C170" t="s">
         <v>1</v>
@@ -4404,24 +4445,24 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B171" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C171" t="s">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B172" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C172" t="s">
         <v>1</v>
@@ -4432,136 +4473,136 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B173" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C173" t="s">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B174" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C174" t="s">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B175" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C175" t="s">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B176" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C176" t="s">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="B177" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C177" t="s">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B178" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C178" t="s">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="B179" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C179" t="s">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B180" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C180" t="s">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B181" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C181" t="s">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="B182" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C182" t="s">
         <v>1</v>
@@ -4572,16 +4613,16 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B183" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C183" t="s">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -4589,147 +4630,147 @@
         <v>212</v>
       </c>
       <c r="B184" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C184" t="s">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="B185" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C185" t="s">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B186" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C186" t="s">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="B187" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C187" t="s">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B188" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C188" t="s">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B189" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C189" t="s">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B190" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C190" t="s">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B191" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C191" t="s">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="B192" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C192" t="s">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C193" t="s">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C194" t="s">
         <v>1</v>
@@ -4740,416 +4781,416 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B195" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C195" t="s">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C196" t="s">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C197" t="s">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C198" t="s">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>227</v>
+        <v>506</v>
       </c>
       <c r="B199" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C199" t="s">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>228</v>
+        <v>507</v>
       </c>
       <c r="B200" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C200" t="s">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>229</v>
+        <v>508</v>
       </c>
       <c r="B201" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C201" t="s">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>230</v>
+        <v>509</v>
       </c>
       <c r="B202" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C202" t="s">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>231</v>
+        <v>510</v>
       </c>
       <c r="B203" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C203" t="s">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>232</v>
+        <v>511</v>
       </c>
       <c r="B204" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C204" t="s">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>233</v>
+        <v>512</v>
       </c>
       <c r="B205" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C205" t="s">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>234</v>
+        <v>513</v>
       </c>
       <c r="B206" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C206" t="s">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>235</v>
+        <v>514</v>
       </c>
       <c r="B207" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C207" t="s">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="B208" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C208" t="s">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="B209" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C209" t="s">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B210" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C210" t="s">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="B211" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C211" t="s">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C212" t="s">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C213" t="s">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C214" t="s">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C215" t="s">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C216" t="s">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="B217" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C217" t="s">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="B218" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C218" t="s">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="B219" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C219" t="s">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B220" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C220" t="s">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C221" t="s">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C222" t="s">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="B223" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C223" t="s">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B224" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C224" t="s">
         <v>1</v>
@@ -5160,21 +5201,21 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="B225" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C225" t="s">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>254</v>
+        <v>515</v>
       </c>
       <c r="B226" t="s">
         <v>19</v>
@@ -5183,85 +5224,85 @@
         <v>1</v>
       </c>
       <c r="D226">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>255</v>
+        <v>516</v>
       </c>
       <c r="B227" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C227" t="s">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C228" t="s">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C229" t="s">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C230" t="s">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C231" t="s">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="B232" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C232" t="s">
         <v>1</v>
@@ -5272,38 +5313,38 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B233" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C233" t="s">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C234" t="s">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C235" t="s">
         <v>1</v>
@@ -5314,94 +5355,94 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="B236" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C236" t="s">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C237" t="s">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="B238" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C238" t="s">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C239" t="s">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>268</v>
+        <v>517</v>
       </c>
       <c r="B240" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C240" t="s">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>269</v>
+        <v>518</v>
       </c>
       <c r="B241" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C241" t="s">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C242" t="s">
         <v>1</v>
@@ -5412,245 +5453,245 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C243" t="s">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C244" t="s">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="B245" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C245" t="s">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C246" t="s">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C247" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D247">
-        <v>220</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="B248" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C248" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D248">
-        <v>216</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C249" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D249">
-        <v>203</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C250" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D250">
-        <v>201</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="B251" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C251" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>177</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C252" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D252">
-        <v>152</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
+        <v>519</v>
+      </c>
+      <c r="B253" t="s">
+        <v>37</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1</v>
+      </c>
+      <c r="D253">
         <v>2</v>
-      </c>
-      <c r="B253" t="s">
-        <v>17</v>
-      </c>
-      <c r="C253" t="s">
-        <v>3</v>
-      </c>
-      <c r="D253">
-        <v>147</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>281</v>
+        <v>520</v>
       </c>
       <c r="B254" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C254" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D254">
-        <v>119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="B255" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C255" t="s">
         <v>3</v>
       </c>
       <c r="D255">
-        <v>91</v>
+        <v>218</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="B256" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C256" t="s">
         <v>3</v>
       </c>
       <c r="D256">
-        <v>78</v>
+        <v>218</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="B257" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C257" t="s">
         <v>3</v>
       </c>
       <c r="D257">
-        <v>65</v>
+        <v>206</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="B258" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C258" t="s">
         <v>3</v>
       </c>
       <c r="D258">
-        <v>58</v>
+        <v>208</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="B259" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C259" t="s">
         <v>3</v>
       </c>
       <c r="D259">
-        <v>54</v>
+        <v>156</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>287</v>
+        <v>2</v>
       </c>
       <c r="B260" t="s">
         <v>17</v>
@@ -5659,68 +5700,68 @@
         <v>3</v>
       </c>
       <c r="D260">
-        <v>55</v>
+        <v>139</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>288</v>
+        <v>521</v>
       </c>
       <c r="B261" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C261" t="s">
         <v>3</v>
       </c>
       <c r="D261">
-        <v>46</v>
+        <v>145</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C262" t="s">
         <v>3</v>
       </c>
       <c r="D262">
-        <v>33</v>
+        <v>153</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C263" t="s">
         <v>3</v>
       </c>
       <c r="D263">
-        <v>58</v>
+        <v>132</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>291</v>
+        <v>522</v>
       </c>
       <c r="B264" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C264" t="s">
         <v>3</v>
       </c>
       <c r="D264">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="B265" t="s">
         <v>13</v>
@@ -5729,40 +5770,40 @@
         <v>3</v>
       </c>
       <c r="D265">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C266" t="s">
         <v>3</v>
       </c>
       <c r="D266">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C267" t="s">
         <v>3</v>
       </c>
       <c r="D267">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="B268" t="s">
         <v>17</v>
@@ -5771,250 +5812,250 @@
         <v>3</v>
       </c>
       <c r="D268">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="B269" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C269" t="s">
         <v>3</v>
       </c>
       <c r="D269">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C270" t="s">
         <v>3</v>
       </c>
       <c r="D270">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>298</v>
+        <v>523</v>
       </c>
       <c r="B271" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C271" t="s">
         <v>3</v>
       </c>
       <c r="D271">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="B272" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C272" t="s">
         <v>3</v>
       </c>
       <c r="D272">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="B273" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C273" t="s">
         <v>3</v>
       </c>
       <c r="D273">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C274" t="s">
         <v>3</v>
       </c>
       <c r="D274">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C275" t="s">
         <v>3</v>
       </c>
       <c r="D275">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="B276" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C276" t="s">
         <v>3</v>
       </c>
       <c r="D276">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>304</v>
+        <v>524</v>
       </c>
       <c r="B277" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C277" t="s">
         <v>3</v>
       </c>
       <c r="D277">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C278" t="s">
         <v>3</v>
       </c>
       <c r="D278">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="B279" t="s">
+        <v>11</v>
+      </c>
+      <c r="C279" t="s">
+        <v>3</v>
+      </c>
+      <c r="D279">
         <v>37</v>
-      </c>
-      <c r="C279" t="s">
-        <v>3</v>
-      </c>
-      <c r="D279">
-        <v>33</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C280" t="s">
         <v>3</v>
       </c>
       <c r="D280">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="B281" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C281" t="s">
         <v>3</v>
       </c>
       <c r="D281">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C282" t="s">
         <v>3</v>
       </c>
       <c r="D282">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>5</v>
+        <v>275</v>
       </c>
       <c r="B283" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C283" t="s">
         <v>3</v>
       </c>
       <c r="D283">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="B284" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C284" t="s">
         <v>3</v>
       </c>
       <c r="D284">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="B285" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C285" t="s">
         <v>3</v>
       </c>
       <c r="D285">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="B286" t="s">
         <v>25</v>
@@ -6023,169 +6064,169 @@
         <v>3</v>
       </c>
       <c r="D286">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="B287" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C287" t="s">
         <v>3</v>
       </c>
       <c r="D287">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="B288" t="s">
+        <v>37</v>
+      </c>
+      <c r="C288" t="s">
+        <v>3</v>
+      </c>
+      <c r="D288">
         <v>15</v>
-      </c>
-      <c r="C288" t="s">
-        <v>3</v>
-      </c>
-      <c r="D288">
-        <v>37</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C289" t="s">
         <v>3</v>
       </c>
       <c r="D289">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C290" t="s">
         <v>3</v>
       </c>
       <c r="D290">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>317</v>
+        <v>525</v>
       </c>
       <c r="B291" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C291" t="s">
         <v>3</v>
       </c>
       <c r="D291">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>318</v>
+        <v>526</v>
       </c>
       <c r="B292" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C292" t="s">
         <v>3</v>
       </c>
       <c r="D292">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B293" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C293" t="s">
         <v>3</v>
       </c>
       <c r="D293">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="B294" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C294" t="s">
         <v>3</v>
       </c>
       <c r="D294">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="B295" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C295" t="s">
         <v>3</v>
       </c>
       <c r="D295">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="B296" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C296" t="s">
         <v>3</v>
       </c>
       <c r="D296">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="B297" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C297" t="s">
         <v>3</v>
       </c>
       <c r="D297">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="B298" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C298" t="s">
         <v>3</v>
@@ -6196,136 +6237,136 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="B299" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C299" t="s">
         <v>3</v>
       </c>
       <c r="D299">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="B300" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C300" t="s">
         <v>3</v>
       </c>
       <c r="D300">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="B301" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C301" t="s">
         <v>3</v>
       </c>
       <c r="D301">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="B302" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C302" t="s">
         <v>3</v>
       </c>
       <c r="D302">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="B303" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C303" t="s">
         <v>3</v>
       </c>
       <c r="D303">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="B304" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C304" t="s">
         <v>3</v>
       </c>
       <c r="D304">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>331</v>
+        <v>527</v>
       </c>
       <c r="B305" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C305" t="s">
         <v>3</v>
       </c>
       <c r="D305">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>332</v>
+        <v>528</v>
       </c>
       <c r="B306" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C306" t="s">
         <v>3</v>
       </c>
       <c r="D306">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="B307" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C307" t="s">
         <v>3</v>
       </c>
       <c r="D307">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>334</v>
+        <v>5</v>
       </c>
       <c r="B308" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C308" t="s">
         <v>3</v>
@@ -6336,80 +6377,80 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="B309" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C309" t="s">
         <v>3</v>
       </c>
       <c r="D309">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="B310" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C310" t="s">
         <v>3</v>
       </c>
       <c r="D310">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C311" t="s">
         <v>3</v>
       </c>
       <c r="D311">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="B312" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C312" t="s">
         <v>3</v>
       </c>
       <c r="D312">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="B313" t="s">
+        <v>43</v>
+      </c>
+      <c r="C313" t="s">
+        <v>3</v>
+      </c>
+      <c r="D313">
         <v>21</v>
-      </c>
-      <c r="C313" t="s">
-        <v>3</v>
-      </c>
-      <c r="D313">
-        <v>23</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>340</v>
+        <v>529</v>
       </c>
       <c r="B314" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C314" t="s">
         <v>3</v>
@@ -6420,7 +6461,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="B315" t="s">
         <v>35</v>
@@ -6429,446 +6470,446 @@
         <v>3</v>
       </c>
       <c r="D315">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="B316" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C316" t="s">
         <v>3</v>
       </c>
       <c r="D316">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B317" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C317" t="s">
         <v>3</v>
       </c>
       <c r="D317">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="B318" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C318" t="s">
         <v>3</v>
       </c>
       <c r="D318">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="B319" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C319" t="s">
         <v>3</v>
       </c>
       <c r="D319">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="B320" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C320" t="s">
         <v>3</v>
       </c>
       <c r="D320">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="B321" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C321" t="s">
         <v>3</v>
       </c>
       <c r="D321">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="B322" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C322" t="s">
         <v>3</v>
       </c>
       <c r="D322">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="B323" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C323" t="s">
         <v>3</v>
       </c>
       <c r="D323">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="B324" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C324" t="s">
         <v>3</v>
       </c>
       <c r="D324">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="B325" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C325" t="s">
         <v>3</v>
       </c>
       <c r="D325">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="B326" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C326" t="s">
         <v>3</v>
       </c>
       <c r="D326">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>353</v>
+        <v>530</v>
       </c>
       <c r="B327" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C327" t="s">
         <v>3</v>
       </c>
       <c r="D327">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="B328" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C328" t="s">
         <v>3</v>
       </c>
       <c r="D328">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="B329" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C329" t="s">
         <v>3</v>
       </c>
       <c r="D329">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="B330" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C330" t="s">
         <v>3</v>
       </c>
       <c r="D330">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="B331" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C331" t="s">
         <v>3</v>
       </c>
       <c r="D331">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="B332" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C332" t="s">
         <v>3</v>
       </c>
       <c r="D332">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="B333" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C333" t="s">
         <v>3</v>
       </c>
       <c r="D333">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="B334" t="s">
+        <v>33</v>
+      </c>
+      <c r="C334" t="s">
+        <v>3</v>
+      </c>
+      <c r="D334">
         <v>19</v>
-      </c>
-      <c r="C334" t="s">
-        <v>3</v>
-      </c>
-      <c r="D334">
-        <v>15</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="B335" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C335" t="s">
         <v>3</v>
       </c>
       <c r="D335">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="B336" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C336" t="s">
         <v>3</v>
       </c>
       <c r="D336">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="B337" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C337" t="s">
         <v>3</v>
       </c>
       <c r="D337">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="B338" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C338" t="s">
         <v>3</v>
       </c>
       <c r="D338">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B339" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C339" t="s">
         <v>3</v>
       </c>
       <c r="D339">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="B340" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C340" t="s">
         <v>3</v>
       </c>
       <c r="D340">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="B341" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C341" t="s">
         <v>3</v>
       </c>
       <c r="D341">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="B342" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C342" t="s">
         <v>3</v>
       </c>
       <c r="D342">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="B343" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C343" t="s">
         <v>3</v>
       </c>
       <c r="D343">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="B344" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C344" t="s">
         <v>3</v>
       </c>
       <c r="D344">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="B345" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C345" t="s">
         <v>3</v>
       </c>
       <c r="D345">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>372</v>
+        <v>328</v>
       </c>
       <c r="B346" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C346" t="s">
         <v>3</v>
       </c>
       <c r="D346">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="B347" t="s">
         <v>53</v>
@@ -6877,26 +6918,26 @@
         <v>3</v>
       </c>
       <c r="D347">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="B348" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C348" t="s">
         <v>3</v>
       </c>
       <c r="D348">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="B349" t="s">
         <v>39</v>
@@ -6905,26 +6946,26 @@
         <v>3</v>
       </c>
       <c r="D349">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="B350" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C350" t="s">
         <v>3</v>
       </c>
       <c r="D350">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="B351" t="s">
         <v>43</v>
@@ -6933,40 +6974,40 @@
         <v>3</v>
       </c>
       <c r="D351">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="B352" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C352" t="s">
         <v>3</v>
       </c>
       <c r="D352">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>379</v>
+        <v>531</v>
       </c>
       <c r="B353" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C353" t="s">
         <v>3</v>
       </c>
       <c r="D353">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="B354" t="s">
         <v>35</v>
@@ -6975,54 +7016,54 @@
         <v>3</v>
       </c>
       <c r="D354">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C355" t="s">
         <v>3</v>
       </c>
       <c r="D355">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>382</v>
+        <v>341</v>
       </c>
       <c r="B356" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C356" t="s">
         <v>3</v>
       </c>
       <c r="D356">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="B357" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C357" t="s">
         <v>3</v>
       </c>
       <c r="D357">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="B358" t="s">
         <v>33</v>
@@ -7031,85 +7072,85 @@
         <v>3</v>
       </c>
       <c r="D358">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="B359" t="s">
+        <v>33</v>
+      </c>
+      <c r="C359" t="s">
+        <v>3</v>
+      </c>
+      <c r="D359">
         <v>13</v>
-      </c>
-      <c r="C359" t="s">
-        <v>3</v>
-      </c>
-      <c r="D359">
-        <v>9</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="B360" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C360" t="s">
         <v>3</v>
       </c>
       <c r="D360">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>387</v>
+        <v>343</v>
       </c>
       <c r="B361" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C361" t="s">
         <v>3</v>
       </c>
       <c r="D361">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>388</v>
+        <v>344</v>
       </c>
       <c r="B362" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C362" t="s">
         <v>3</v>
       </c>
       <c r="D362">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="B363" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C363" t="s">
         <v>3</v>
       </c>
       <c r="D363">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>390</v>
+        <v>347</v>
       </c>
       <c r="B364" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C364" t="s">
         <v>3</v>
@@ -7120,10 +7161,10 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
       <c r="B365" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C365" t="s">
         <v>3</v>
@@ -7134,497 +7175,497 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="B366" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C366" t="s">
         <v>3</v>
       </c>
       <c r="D366">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>393</v>
+        <v>337</v>
       </c>
       <c r="B367" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C367" t="s">
         <v>3</v>
       </c>
       <c r="D367">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="B368" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C368" t="s">
         <v>3</v>
       </c>
       <c r="D368">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
       <c r="B369" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C369" t="s">
         <v>3</v>
       </c>
       <c r="D369">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>396</v>
+        <v>338</v>
       </c>
       <c r="B370" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C370" t="s">
         <v>3</v>
       </c>
       <c r="D370">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
       <c r="B371" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C371" t="s">
         <v>3</v>
       </c>
       <c r="D371">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="B372" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C372" t="s">
         <v>3</v>
       </c>
       <c r="D372">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="B373" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C373" t="s">
         <v>3</v>
       </c>
       <c r="D373">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="B374" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C374" t="s">
         <v>3</v>
       </c>
       <c r="D374">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>401</v>
+        <v>532</v>
       </c>
       <c r="B375" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C375" t="s">
         <v>3</v>
       </c>
       <c r="D375">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>402</v>
+        <v>533</v>
       </c>
       <c r="B376" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C376" t="s">
         <v>3</v>
       </c>
       <c r="D376">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>403</v>
+        <v>534</v>
       </c>
       <c r="B377" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C377" t="s">
         <v>3</v>
       </c>
       <c r="D377">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>404</v>
+        <v>361</v>
       </c>
       <c r="B378" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C378" t="s">
         <v>3</v>
       </c>
       <c r="D378">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="B379" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C379" t="s">
         <v>3</v>
       </c>
       <c r="D379">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="B380" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C380" t="s">
         <v>3</v>
       </c>
       <c r="D380">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>407</v>
+        <v>363</v>
       </c>
       <c r="B381" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C381" t="s">
         <v>3</v>
       </c>
       <c r="D381">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="B382" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C382" t="s">
         <v>3</v>
       </c>
       <c r="D382">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="B383" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C383" t="s">
         <v>3</v>
       </c>
       <c r="D383">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="B384" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C384" t="s">
         <v>3</v>
       </c>
       <c r="D384">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
       <c r="B385" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C385" t="s">
         <v>3</v>
       </c>
       <c r="D385">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="B386" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C386" t="s">
         <v>3</v>
       </c>
       <c r="D386">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>413</v>
+        <v>370</v>
       </c>
       <c r="B387" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C387" t="s">
         <v>3</v>
       </c>
       <c r="D387">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>414</v>
+        <v>371</v>
       </c>
       <c r="B388" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C388" t="s">
         <v>3</v>
       </c>
       <c r="D388">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="B389" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C389" t="s">
         <v>3</v>
       </c>
       <c r="D389">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>416</v>
+        <v>372</v>
       </c>
       <c r="B390" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C390" t="s">
         <v>3</v>
       </c>
       <c r="D390">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>417</v>
+        <v>373</v>
       </c>
       <c r="B391" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C391" t="s">
         <v>3</v>
       </c>
       <c r="D391">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>418</v>
+        <v>374</v>
       </c>
       <c r="B392" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C392" t="s">
         <v>3</v>
       </c>
       <c r="D392">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="B393" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C393" t="s">
         <v>3</v>
       </c>
       <c r="D393">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>420</v>
+        <v>376</v>
       </c>
       <c r="B394" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C394" t="s">
         <v>3</v>
       </c>
       <c r="D394">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>421</v>
+        <v>362</v>
       </c>
       <c r="B395" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C395" t="s">
         <v>3</v>
       </c>
       <c r="D395">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="B396" t="s">
+        <v>45</v>
+      </c>
+      <c r="C396" t="s">
+        <v>3</v>
+      </c>
+      <c r="D396">
         <v>23</v>
-      </c>
-      <c r="C396" t="s">
-        <v>3</v>
-      </c>
-      <c r="D396">
-        <v>4</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>423</v>
+        <v>379</v>
       </c>
       <c r="B397" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C397" t="s">
         <v>3</v>
       </c>
       <c r="D397">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>424</v>
+        <v>380</v>
       </c>
       <c r="B398" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C398" t="s">
         <v>3</v>
       </c>
       <c r="D398">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>425</v>
+        <v>367</v>
       </c>
       <c r="B399" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C399" t="s">
         <v>3</v>
       </c>
       <c r="D399">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>426</v>
+        <v>381</v>
       </c>
       <c r="B400" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C400" t="s">
         <v>3</v>
       </c>
       <c r="D400">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>427</v>
+        <v>382</v>
       </c>
       <c r="B401" t="s">
         <v>47</v>
@@ -7633,138 +7674,138 @@
         <v>3</v>
       </c>
       <c r="D401">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>428</v>
+        <v>383</v>
       </c>
       <c r="B402" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C402" t="s">
         <v>3</v>
       </c>
       <c r="D402">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>429</v>
+        <v>535</v>
       </c>
       <c r="B403" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C403" t="s">
         <v>3</v>
       </c>
       <c r="D403">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>430</v>
+        <v>536</v>
       </c>
       <c r="B404" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C404" t="s">
         <v>3</v>
       </c>
       <c r="D404">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>431</v>
+        <v>537</v>
       </c>
       <c r="B405" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C405" t="s">
         <v>3</v>
       </c>
       <c r="D405">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>432</v>
+        <v>538</v>
       </c>
       <c r="B406" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C406" t="s">
         <v>3</v>
       </c>
       <c r="D406">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>433</v>
+        <v>384</v>
       </c>
       <c r="B407" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C407" t="s">
         <v>3</v>
       </c>
       <c r="D407">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="B408" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C408" t="s">
         <v>3</v>
       </c>
       <c r="D408">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="B409" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C409" t="s">
         <v>3</v>
       </c>
       <c r="D409">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>436</v>
+        <v>388</v>
       </c>
       <c r="B410" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C410" t="s">
         <v>3</v>
       </c>
       <c r="D410">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>437</v>
+        <v>391</v>
       </c>
       <c r="B411" t="s">
         <v>53</v>
@@ -7778,21 +7819,21 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="B412" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C412" t="s">
         <v>3</v>
       </c>
       <c r="D412">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>439</v>
+        <v>398</v>
       </c>
       <c r="B413" t="s">
         <v>43</v>
@@ -7801,432 +7842,432 @@
         <v>3</v>
       </c>
       <c r="D413">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>440</v>
+        <v>393</v>
       </c>
       <c r="B414" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C414" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D414">
-        <v>380</v>
+        <v>17</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>441</v>
+        <v>539</v>
       </c>
       <c r="B415" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C415" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D415">
-        <v>375</v>
+        <v>12</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>442</v>
+        <v>540</v>
       </c>
       <c r="B416" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C416" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D416">
-        <v>341</v>
+        <v>8</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>444</v>
+        <v>394</v>
       </c>
       <c r="B417" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C417" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D417">
-        <v>318</v>
+        <v>17</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
       <c r="B418" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C418" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D418">
-        <v>296</v>
+        <v>4</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>445</v>
+        <v>403</v>
       </c>
       <c r="B419" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C419" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D419">
-        <v>278</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="B420" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C420" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D420">
-        <v>261</v>
+        <v>3</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="B421" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C421" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D421">
-        <v>252</v>
+        <v>3</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>450</v>
+        <v>399</v>
       </c>
       <c r="B422" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C422" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D422">
-        <v>242</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>448</v>
+        <v>541</v>
       </c>
       <c r="B423" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C423" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D423">
-        <v>235</v>
+        <v>4</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>451</v>
+        <v>400</v>
       </c>
       <c r="B424" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C424" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D424">
-        <v>170</v>
+        <v>8</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>453</v>
+        <v>401</v>
       </c>
       <c r="B425" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C425" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D425">
-        <v>166</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="B426" t="s">
         <v>25</v>
       </c>
       <c r="C426" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D426">
-        <v>155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>455</v>
+        <v>404</v>
       </c>
       <c r="B427" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C427" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D427">
-        <v>147</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>454</v>
+        <v>405</v>
       </c>
       <c r="B428" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C428" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D428">
-        <v>145</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>460</v>
+        <v>406</v>
       </c>
       <c r="B429" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C429" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D429">
-        <v>140</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>461</v>
+        <v>407</v>
       </c>
       <c r="B430" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C430" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D430">
-        <v>140</v>
+        <v>7</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>456</v>
+        <v>542</v>
       </c>
       <c r="B431" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C431" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D431">
-        <v>138</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>463</v>
+        <v>543</v>
       </c>
       <c r="B432" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C432" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D432">
-        <v>137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>457</v>
+        <v>544</v>
       </c>
       <c r="B433" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C433" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D433">
-        <v>125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="B434" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C434" t="s">
         <v>4</v>
       </c>
       <c r="D434">
-        <v>112</v>
+        <v>373</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>459</v>
+        <v>409</v>
       </c>
       <c r="B435" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C435" t="s">
         <v>4</v>
       </c>
       <c r="D435">
-        <v>102</v>
+        <v>364</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>449</v>
+        <v>412</v>
       </c>
       <c r="B436" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C436" t="s">
         <v>4</v>
       </c>
       <c r="D436">
-        <v>99</v>
+        <v>337</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>465</v>
+        <v>410</v>
       </c>
       <c r="B437" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C437" t="s">
         <v>4</v>
       </c>
       <c r="D437">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>462</v>
+        <v>411</v>
       </c>
       <c r="B438" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C438" t="s">
         <v>4</v>
       </c>
       <c r="D438">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>464</v>
+        <v>413</v>
       </c>
       <c r="B439" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C439" t="s">
         <v>4</v>
       </c>
       <c r="D439">
-        <v>90</v>
+        <v>266</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>467</v>
+        <v>417</v>
       </c>
       <c r="B440" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C440" t="s">
         <v>4</v>
       </c>
       <c r="D440">
-        <v>80</v>
+        <v>126</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>466</v>
+        <v>414</v>
       </c>
       <c r="B441" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C441" t="s">
         <v>4</v>
       </c>
       <c r="D441">
-        <v>73</v>
+        <v>218</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
       <c r="B442" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C442" t="s">
         <v>4</v>
       </c>
       <c r="D442">
-        <v>71</v>
+        <v>220</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B443" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C443" t="s">
         <v>4</v>
       </c>
       <c r="D443">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>469</v>
+        <v>545</v>
       </c>
       <c r="B444" t="s">
         <v>17</v>
@@ -8235,54 +8276,54 @@
         <v>4</v>
       </c>
       <c r="D444">
-        <v>60</v>
+        <v>186</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>472</v>
+        <v>418</v>
       </c>
       <c r="B445" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C445" t="s">
         <v>4</v>
       </c>
       <c r="D445">
-        <v>58</v>
+        <v>210</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>471</v>
+        <v>420</v>
       </c>
       <c r="B446" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C446" t="s">
         <v>4</v>
       </c>
       <c r="D446">
-        <v>53</v>
+        <v>198</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>470</v>
+        <v>419</v>
       </c>
       <c r="B447" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C447" t="s">
         <v>4</v>
       </c>
       <c r="D447">
-        <v>51</v>
+        <v>142</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>473</v>
+        <v>423</v>
       </c>
       <c r="B448" t="s">
         <v>25</v>
@@ -8291,278 +8332,278 @@
         <v>4</v>
       </c>
       <c r="D448">
-        <v>45</v>
+        <v>102</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>477</v>
+        <v>422</v>
       </c>
       <c r="B449" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C449" t="s">
         <v>4</v>
       </c>
       <c r="D449">
-        <v>44</v>
+        <v>144</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>479</v>
+        <v>427</v>
       </c>
       <c r="B450" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C450" t="s">
         <v>4</v>
       </c>
       <c r="D450">
-        <v>36</v>
+        <v>119</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>478</v>
+        <v>428</v>
       </c>
       <c r="B451" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C451" t="s">
         <v>4</v>
       </c>
       <c r="D451">
-        <v>30</v>
+        <v>128</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>481</v>
+        <v>424</v>
       </c>
       <c r="B452" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C452" t="s">
         <v>4</v>
       </c>
       <c r="D452">
-        <v>28</v>
+        <v>148</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>482</v>
+        <v>425</v>
       </c>
       <c r="B453" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C453" t="s">
         <v>4</v>
       </c>
       <c r="D453">
-        <v>26</v>
+        <v>135</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>484</v>
+        <v>421</v>
       </c>
       <c r="B454" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C454" t="s">
         <v>4</v>
       </c>
       <c r="D454">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>486</v>
+        <v>546</v>
       </c>
       <c r="B455" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C455" t="s">
         <v>4</v>
       </c>
       <c r="D455">
-        <v>24</v>
+        <v>135</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>488</v>
+        <v>429</v>
       </c>
       <c r="B456" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C456" t="s">
         <v>4</v>
       </c>
       <c r="D456">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>489</v>
+        <v>431</v>
       </c>
       <c r="B457" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C457" t="s">
         <v>4</v>
       </c>
       <c r="D457">
-        <v>24</v>
+        <v>162</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>493</v>
+        <v>426</v>
       </c>
       <c r="B458" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C458" t="s">
         <v>4</v>
       </c>
       <c r="D458">
-        <v>24</v>
+        <v>87</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="B459" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C459" t="s">
         <v>4</v>
       </c>
       <c r="D459">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>480</v>
+        <v>547</v>
       </c>
       <c r="B460" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C460" t="s">
         <v>4</v>
       </c>
       <c r="D460">
-        <v>22</v>
+        <v>75</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>491</v>
+        <v>432</v>
       </c>
       <c r="B461" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C461" t="s">
         <v>4</v>
       </c>
       <c r="D461">
-        <v>22</v>
+        <v>77</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>487</v>
+        <v>433</v>
       </c>
       <c r="B462" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C462" t="s">
         <v>4</v>
       </c>
       <c r="D462">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="B463" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C463" t="s">
         <v>4</v>
       </c>
       <c r="D463">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>485</v>
+        <v>548</v>
       </c>
       <c r="B464" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C464" t="s">
         <v>4</v>
       </c>
       <c r="D464">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>483</v>
+        <v>435</v>
       </c>
       <c r="B465" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C465" t="s">
         <v>4</v>
       </c>
       <c r="D465">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>490</v>
+        <v>436</v>
       </c>
       <c r="B466" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C466" t="s">
         <v>4</v>
       </c>
       <c r="D466">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>494</v>
+        <v>437</v>
       </c>
       <c r="B467" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C467" t="s">
         <v>4</v>
       </c>
       <c r="D467">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>495</v>
+        <v>438</v>
       </c>
       <c r="B468" t="s">
         <v>29</v>
@@ -8571,124 +8612,124 @@
         <v>4</v>
       </c>
       <c r="D468">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>508</v>
+        <v>440</v>
       </c>
       <c r="B469" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C469" t="s">
         <v>4</v>
       </c>
       <c r="D469">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>511</v>
+        <v>441</v>
       </c>
       <c r="B470" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C470" t="s">
         <v>4</v>
       </c>
       <c r="D470">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>504</v>
+        <v>439</v>
       </c>
       <c r="B471" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C471" t="s">
         <v>4</v>
       </c>
       <c r="D471">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>506</v>
+        <v>446</v>
       </c>
       <c r="B472" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C472" t="s">
         <v>4</v>
       </c>
       <c r="D472">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="B473" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C473" t="s">
         <v>4</v>
       </c>
       <c r="D473">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>497</v>
+        <v>442</v>
       </c>
       <c r="B474" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C474" t="s">
         <v>4</v>
       </c>
       <c r="D474">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>499</v>
+        <v>550</v>
       </c>
       <c r="B475" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C475" t="s">
         <v>4</v>
       </c>
       <c r="D475">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>503</v>
+        <v>447</v>
       </c>
       <c r="B476" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C476" t="s">
         <v>4</v>
       </c>
       <c r="D476">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>516</v>
+        <v>449</v>
       </c>
       <c r="B477" t="s">
         <v>37</v>
@@ -8697,57 +8738,57 @@
         <v>4</v>
       </c>
       <c r="D477">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>517</v>
+        <v>443</v>
       </c>
       <c r="B478" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C478" t="s">
         <v>4</v>
       </c>
       <c r="D478">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>501</v>
+        <v>444</v>
       </c>
       <c r="B479" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C479" t="s">
         <v>4</v>
       </c>
       <c r="D479">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>502</v>
+        <v>445</v>
       </c>
       <c r="B480" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C480" t="s">
         <v>4</v>
       </c>
       <c r="D480">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>505</v>
+        <v>448</v>
       </c>
       <c r="B481" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C481" t="s">
         <v>4</v>
@@ -8758,161 +8799,161 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>513</v>
+        <v>455</v>
       </c>
       <c r="B482" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C482" t="s">
         <v>4</v>
       </c>
       <c r="D482">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>500</v>
+        <v>456</v>
       </c>
       <c r="B483" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C483" t="s">
         <v>4</v>
       </c>
       <c r="D483">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>512</v>
+        <v>551</v>
       </c>
       <c r="B484" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C484" t="s">
         <v>4</v>
       </c>
       <c r="D484">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>509</v>
+        <v>450</v>
       </c>
       <c r="B485" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C485" t="s">
         <v>4</v>
       </c>
       <c r="D485">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>510</v>
+        <v>451</v>
       </c>
       <c r="B486" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C486" t="s">
         <v>4</v>
       </c>
       <c r="D486">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>521</v>
+        <v>457</v>
       </c>
       <c r="B487" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C487" t="s">
         <v>4</v>
       </c>
       <c r="D487">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>522</v>
+        <v>452</v>
       </c>
       <c r="B488" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C488" t="s">
         <v>4</v>
       </c>
       <c r="D488">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>507</v>
+        <v>453</v>
       </c>
       <c r="B489" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C489" t="s">
         <v>4</v>
       </c>
       <c r="D489">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>519</v>
+        <v>465</v>
       </c>
       <c r="B490" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C490" t="s">
         <v>4</v>
       </c>
       <c r="D490">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>520</v>
+        <v>454</v>
       </c>
       <c r="B491" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C491" t="s">
         <v>4</v>
       </c>
       <c r="D491">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
       <c r="B492" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C492" t="s">
         <v>4</v>
       </c>
       <c r="D492">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>514</v>
+        <v>472</v>
       </c>
       <c r="B493" t="s">
         <v>11</v>
@@ -8921,54 +8962,54 @@
         <v>4</v>
       </c>
       <c r="D493">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>515</v>
+        <v>463</v>
       </c>
       <c r="B494" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C494" t="s">
         <v>4</v>
       </c>
       <c r="D494">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>518</v>
+        <v>458</v>
       </c>
       <c r="B495" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C495" t="s">
         <v>4</v>
       </c>
       <c r="D495">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>523</v>
+        <v>468</v>
       </c>
       <c r="B496" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C496" t="s">
         <v>4</v>
       </c>
       <c r="D496">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>527</v>
+        <v>459</v>
       </c>
       <c r="B497" t="s">
         <v>29</v>
@@ -8977,110 +9018,110 @@
         <v>4</v>
       </c>
       <c r="D497">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>532</v>
+        <v>470</v>
       </c>
       <c r="B498" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C498" t="s">
         <v>4</v>
       </c>
       <c r="D498">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>525</v>
+        <v>460</v>
       </c>
       <c r="B499" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C499" t="s">
         <v>4</v>
       </c>
       <c r="D499">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>533</v>
+        <v>471</v>
       </c>
       <c r="B500" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C500" t="s">
         <v>4</v>
       </c>
       <c r="D500">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>498</v>
+        <v>461</v>
       </c>
       <c r="B501" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C501" t="s">
         <v>4</v>
       </c>
       <c r="D501">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>526</v>
+        <v>464</v>
       </c>
       <c r="B502" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C502" t="s">
         <v>4</v>
       </c>
       <c r="D502">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>530</v>
+        <v>475</v>
       </c>
       <c r="B503" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C503" t="s">
         <v>4</v>
       </c>
       <c r="D503">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>531</v>
+        <v>467</v>
       </c>
       <c r="B504" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C504" t="s">
         <v>4</v>
       </c>
       <c r="D504">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>539</v>
+        <v>466</v>
       </c>
       <c r="B505" t="s">
         <v>43</v>
@@ -9089,132 +9130,342 @@
         <v>4</v>
       </c>
       <c r="D505">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="B506" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C506" t="s">
         <v>4</v>
       </c>
       <c r="D506">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="B507" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C507" t="s">
         <v>4</v>
       </c>
       <c r="D507">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="B508" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C508" t="s">
         <v>4</v>
       </c>
       <c r="D508">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>528</v>
+        <v>469</v>
       </c>
       <c r="B509" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C509" t="s">
         <v>4</v>
       </c>
       <c r="D509">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>529</v>
+        <v>473</v>
       </c>
       <c r="B510" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C510" t="s">
         <v>4</v>
       </c>
       <c r="D510">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>534</v>
+        <v>477</v>
       </c>
       <c r="B511" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C511" t="s">
         <v>4</v>
       </c>
       <c r="D511">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>536</v>
+        <v>480</v>
       </c>
       <c r="B512" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C512" t="s">
         <v>4</v>
       </c>
       <c r="D512">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>537</v>
+        <v>474</v>
       </c>
       <c r="B513" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C513" t="s">
         <v>4</v>
       </c>
       <c r="D513">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>538</v>
+        <v>476</v>
       </c>
       <c r="B514" t="s">
+        <v>39</v>
+      </c>
+      <c r="C514" t="s">
+        <v>4</v>
+      </c>
+      <c r="D514">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>478</v>
+      </c>
+      <c r="B515" t="s">
+        <v>43</v>
+      </c>
+      <c r="C515" t="s">
+        <v>4</v>
+      </c>
+      <c r="D515">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>555</v>
+      </c>
+      <c r="B516" t="s">
+        <v>39</v>
+      </c>
+      <c r="C516" t="s">
+        <v>4</v>
+      </c>
+      <c r="D516">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>479</v>
+      </c>
+      <c r="B517" t="s">
+        <v>27</v>
+      </c>
+      <c r="C517" t="s">
+        <v>4</v>
+      </c>
+      <c r="D517">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>484</v>
+      </c>
+      <c r="B518" t="s">
+        <v>45</v>
+      </c>
+      <c r="C518" t="s">
+        <v>4</v>
+      </c>
+      <c r="D518">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>492</v>
+      </c>
+      <c r="B519" t="s">
+        <v>47</v>
+      </c>
+      <c r="C519" t="s">
+        <v>4</v>
+      </c>
+      <c r="D519">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>481</v>
+      </c>
+      <c r="B520" t="s">
+        <v>33</v>
+      </c>
+      <c r="C520" t="s">
+        <v>4</v>
+      </c>
+      <c r="D520">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>482</v>
+      </c>
+      <c r="B521" t="s">
+        <v>53</v>
+      </c>
+      <c r="C521" t="s">
+        <v>4</v>
+      </c>
+      <c r="D521">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>483</v>
+      </c>
+      <c r="B522" t="s">
+        <v>35</v>
+      </c>
+      <c r="C522" t="s">
+        <v>4</v>
+      </c>
+      <c r="D522">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>485</v>
+      </c>
+      <c r="B523" t="s">
+        <v>33</v>
+      </c>
+      <c r="C523" t="s">
+        <v>4</v>
+      </c>
+      <c r="D523">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>486</v>
+      </c>
+      <c r="B524" t="s">
+        <v>13</v>
+      </c>
+      <c r="C524" t="s">
+        <v>4</v>
+      </c>
+      <c r="D524">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>487</v>
+      </c>
+      <c r="B525" t="s">
+        <v>37</v>
+      </c>
+      <c r="C525" t="s">
+        <v>4</v>
+      </c>
+      <c r="D525">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>488</v>
+      </c>
+      <c r="B526" t="s">
+        <v>53</v>
+      </c>
+      <c r="C526" t="s">
+        <v>4</v>
+      </c>
+      <c r="D526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>489</v>
+      </c>
+      <c r="B527" t="s">
+        <v>39</v>
+      </c>
+      <c r="C527" t="s">
+        <v>4</v>
+      </c>
+      <c r="D527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>490</v>
+      </c>
+      <c r="B528" t="s">
+        <v>39</v>
+      </c>
+      <c r="C528" t="s">
+        <v>4</v>
+      </c>
+      <c r="D528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>491</v>
+      </c>
+      <c r="B529" t="s">
         <v>31</v>
       </c>
-      <c r="C514" t="s">
-        <v>4</v>
-      </c>
-      <c r="D514">
+      <c r="C529" t="s">
+        <v>4</v>
+      </c>
+      <c r="D529">
         <v>1</v>
       </c>
     </row>
